--- a/src/test/resources/Excel TestData/Pincodes.xlsx
+++ b/src/test/resources/Excel TestData/Pincodes.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\eclipse-workspace\BDDDemo\src\test\resources\Excel TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="4170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="3795"/>
   </bookViews>
   <sheets>
     <sheet name="pincodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Pincode</t>
   </si>
@@ -29,9 +33,6 @@
   </si>
   <si>
     <t>Satara</t>
-  </si>
-  <si>
-    <t>Viman Nagar</t>
   </si>
 </sst>
 </file>
@@ -349,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,64 +384,6 @@
         <v>411003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>411004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>411005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>411006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>411007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>411008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>411009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>411010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>411011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>411012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>411013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>411014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Excel TestData/Pincodes.xlsx
+++ b/src/test/resources/Excel TestData/Pincodes.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\eclipse-workspace\BDDDemo\src\test\resources\Excel TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="3795"/>
   </bookViews>
@@ -15,6 +10,7 @@
     <sheet name="pincodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Pincode</t>
   </si>
@@ -33,6 +29,12 @@
   </si>
   <si>
     <t>Satara</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Latur</t>
   </si>
 </sst>
 </file>
@@ -353,7 +355,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,10 +380,16 @@
       <c r="A3">
         <v>411002</v>
       </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>411003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
